--- a/Bug_Report.xlsx
+++ b/Bug_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tops\Testing_Assignment\Testing_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E76A61-1653-4FD2-8186-B952874FE73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7C918-F254-48DD-BA0F-09C2978C20D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{303EBCB1-ACEA-44BD-A5F5-BE57C1AD720F}"/>
   </bookViews>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EEF11F-27D5-4DC8-8597-453AF6C7F31B}">
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
